--- a/data/trans_bre/P8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,93%</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>62,76%</t>
+          <t>148,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>113,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>140,26%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>149,62%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>174,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 12,49</t>
+          <t>-3,13; 16,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 11,39</t>
+          <t>-4,76; 14,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 9,56</t>
+          <t>-3,53; 14,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 9,8</t>
+          <t>-4,06; 15,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 311,75</t>
+          <t>-3,73; 15,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 357,33</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 268,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,89; 278,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,41%</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,08%</t>
+          <t>160,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,06%</t>
+          <t>81,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-23,01%</t>
+          <t>80,7%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,05%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 7,36</t>
+          <t>0,31; 9,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 2,28</t>
+          <t>-1,39; 8,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,24</t>
+          <t>-1,57; 8,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 2,03</t>
+          <t>-1,24; 8,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 185,22</t>
+          <t>-3,09; 10,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,58; 50,92</t>
+          <t>-12,61; 696,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,58; 53,85</t>
+          <t>-39,53; 351,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-61,27; 55,9</t>
+          <t>-32,81; 362,34</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-29,84; 386,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-29,56; 203,19</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,65</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,47</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-5,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-60,26%</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-57,03%</t>
+          <t>-70,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-40,68%</t>
+          <t>-63,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-41,41%</t>
+          <t>-45,34%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-44,94%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-37,57%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,89; -0,42</t>
+          <t>-15,74; -1,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -0,03</t>
+          <t>-17,88; -0,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 1,17</t>
+          <t>-16,73; 1,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 0,85</t>
+          <t>-14,86; 2,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-86,06; 1,87</t>
+          <t>-14,14; 2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-87,95; 4,55</t>
+          <t>-93,82; -3,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-75,68; 24,96</t>
+          <t>-92,95; 3,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-73,55; 15,61</t>
+          <t>-84,22; 40,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-79,96; 41,04</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-72,33; 40,65</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 61,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,47; 20,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 23,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 22,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,44%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 3,79</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,92; 2,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 4,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 4,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,42; 5,34</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-44,98; 103,34</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-53,78; 73,17</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-45,14; 93,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-40,23; 93,56</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-37,29; 82,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P8_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>6,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>148,94%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>113,93%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>140,26%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>149,62%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>174,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.957659608462171</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.756308471662944</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.786391716206262</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.835603155328021</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.035364022916903</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.489425600784327</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.062468717471195</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.466767525354114</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.433969979969908</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.490569631891522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,13; 16,26</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,76; 14,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 14,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,06; 15,73</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-3,73; 15,73</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.130341986284398</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.680228261808601</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.261462700734778</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.924515277370158</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.164925423294531</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.26169425509428</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.97074077835639</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.49094716429303</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>15.98120338403648</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>14.24725859914303</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,11</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>160,53%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>81,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>80,7%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>89,92%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>38,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 9,91</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,39; 8,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,57; 8,39</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 8,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,09; 10,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-12,61; 696,13</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-39,53; 351,58</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-32,81; 362,34</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-29,84; 386,85</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-29,56; 203,19</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.028578187706973</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.5579300505748</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.123045791094131</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.260725431575711</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.95248964880784</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.605264862767591</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.2896705356865307</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.4435418324202046</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.527609375036958</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.2306158058546763</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-6,35</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-6,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,36</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-4,94</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-70,25%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-63,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-45,34%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-44,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-37,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.3093053722343372</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.586715749904192</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-3.302927787688665</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.389699626599784</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.150072125603157</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1261432373761938</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5627965804502748</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4725244588879085</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.440371960064641</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.369237463480396</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-15,74; -1,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,88; -0,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,73; 1,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-14,86; 2,25</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-14,14; 2,53</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-93,82; -3,25</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-92,95; 3,6</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-84,22; 40,17</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-79,96; 41,04</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-72,33; 40,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.9069131902045</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.266058739539014</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.964956210812419</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.182542815236406</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>8.79729976758134</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>6.961291036546358</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.31083799087512</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.918490111559484</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.290346236222472</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.745857539777034</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +863,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-6.349561384328927</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-8.34188661976345</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-6.599528735013477</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.662370546873345</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-5.805897344923204</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7024688073311148</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7091152160118471</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5330280562896579</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.5165481941013018</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.4291806790943093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-15.74001368215885</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-20.4883794407059</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-18.68622558779053</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.96163769845014</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-14.90636980662509</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.9381793063829104</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.9267348323591009</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8502271081441644</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8249174558183821</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7508673041347421</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-1.135634069479444</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-1.319412093102102</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.041172444104482</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.187279827286077</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.582209128082904</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.0325172557396828</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.02319617843176998</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.2787159066560434</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.2653990648878715</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.2549342668706425</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>11,86%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,44%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>8,7%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 3,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 2,99</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 4,19</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 4,17</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 5,34</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-44,98; 103,34</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-53,78; 73,17</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-45,14; 93,68</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-40,23; 93,56</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-37,29; 82,01</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.6509108017170729</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.022379278144833</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7596181460587506</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.4610149020625676</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.2712414534778385</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1186235668875509</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2668259463517059</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1029371461443983</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06453200231059304</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0290603787413909</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.796107059876496</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.28094622699372</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.785441007113015</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.800121543799547</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.36856427897816</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.449793626535214</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6237587478493651</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5338773961498577</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4932988454409665</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4409946090707987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.790432548855826</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.622489595022767</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.918015674327215</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.208792702770416</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.009393154088055</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.03339796854502</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4394716770935367</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6395598247465156</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6775641119240161</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.619772526572785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
